--- a/biology/Zoologie/Courtes-pattes/Courtes-pattes.xlsx
+++ b/biology/Zoologie/Courtes-pattes/Courtes-pattes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La courtes-pattes est une race de poule domestique originaire de France et d'Allemagne.
@@ -512,13 +524,85 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Volaille à corps fourni et allongé, porté horizontalement sur des pattes courtes ; emplumage fourni et long. Tempérament confiant. 
-Origine
-C'est une ancienne poule fermière des régions ouest de la France (et nord-ouest de l’Allemagne). En Allemagne, elle est inscrite en 2001 comme race de l'année de la Gesellschaft zur Erhaltung alter und gefährdeter Haustierrassen[1].
-Standard
-Masse idéale : Coq : 1,75 à 2,25 kg ; Poule : 1,5 à 2 kg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volaille à corps fourni et allongé, porté horizontalement sur des pattes courtes ; emplumage fourni et long. Tempérament confiant. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Courtes-pattes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courtes-pattes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une ancienne poule fermière des régions ouest de la France (et nord-ouest de l’Allemagne). En Allemagne, elle est inscrite en 2001 comme race de l'année de la Gesellschaft zur Erhaltung alter und gefährdeter Haustierrassen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Courtes-pattes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courtes-pattes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Masse idéale : Coq : 1,75 à 2,25 kg ; Poule : 1,5 à 2 kg.
 Crête : simple
 Oreillons : blancs
 Couleur des yeux : noirs
@@ -526,9 +610,43 @@
 Couleur des tarses : selon variété
 Variétés de plumage : noir, blanc, coucou, noir marbré blanc, noir marbré doré, doré saumoné.
 Œufs à couver : min. 60g, coquille blanche
-Diamètre des bagues : Coq : 18mm ; Poule : 16mm
-Club officiel
-Conservatoire des races normandes et du Maine</t>
+Diamètre des bagues : Coq : 18mm ; Poule : 16mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Courtes-pattes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courtes-pattes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Club officiel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conservatoire des races normandes et du Maine</t>
         </is>
       </c>
     </row>
